--- a/DIV10_Analysis/ComparedResults/DIV10_TRANSDEV_Tables.xlsx
+++ b/DIV10_Analysis/ComparedResults/DIV10_TRANSDEV_Tables.xlsx
@@ -11,6 +11,7 @@
     <sheet name="HTotalRevComparison" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="LiftLeaseComparison" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="ViolationComparison" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TripsComparison" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <name val="Calibri"/>
@@ -86,17 +89,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -477,38 +482,38 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>LATEST</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>PREVIOUS</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIFFERENCE</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>CHANGE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>16577.89</v>
-      </c>
-      <c r="B2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>18944.11</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>-2366.22</v>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="B2" s="4" t="n">
+        <v>21979.75</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>-3035.64</v>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Decreased</t>
         </is>
@@ -525,7 +530,262 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="37" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>PARTNER</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>CHANGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>ANGELES TRANSPORTATION, LLC</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>2107</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>2580</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>-473</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>ARISESIZ LLC</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>3633.5</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>-3633.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>DEAUNDREY WRIGHT</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>1956.5</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>1956.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>EDIS OSMANOVIC</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2752</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2752</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>FLASH LOGISTICS LLC</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2709</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2795</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>JUST EASY ACCESS RIDE LLC</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>2537</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>2838</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-301</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>MTIGER TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>2537</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>2945.5</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-408.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>MVO TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>2472.5</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>2193</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>279.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>PAUL KENNEDY</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>1655.5</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1655.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>SAFE DESTINATION TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>2451</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>SANVIN VOYAGE LLC</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>2107</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>2644.5</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-537.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>SUITE CHARRIOT MOBILITY LLC</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>2580</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>VAMONOS TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>344</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>2945.5</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2601.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,249 +800,233 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>PARTNER</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>LATEST</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>PREVIOUS</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>CHANGE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>ANGELES TRANSPORTATION, LLC</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>602</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>2107</v>
+      <c r="B2" s="4" t="n">
+        <v>370</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>370</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>-1505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>APRIL STAR</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>1827.5</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>0</v>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>ARISESIZ LLC</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>370</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>1827.5</v>
+        <v>-370</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>ARISESIZ LLC</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>1290</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>1290</v>
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>DEAUNDREY WRIGHT</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>370</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>BILLY COLLINS</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>301</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>0</v>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>EDIS OSMANOVIC</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>370</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>301</v>
+        <v>-370</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>DEAUNDREY WRIGHT</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>2322</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>1956.5</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>365.5</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>FLASH LOGISTICS LLC</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>370</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>370</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>FLASH LOGISTICS LLC</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>2451</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>2709</v>
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>JUST EASY ACCESS RIDE LLC</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>370</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>370</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>-258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>JUST EASY ACCESS RIDE LLC</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>2515.5</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>2537</v>
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>MTIGER TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>370</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>370</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>-21.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>MTIGER TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>2365</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>2537</v>
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>MVO TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>370</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>370</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>-172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>MVO TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2257.5</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>2472.5</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>-215</v>
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>PAUL KENNEDY</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>259</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-259</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>SAFE DESTINATION TRANSPORTATION LLC</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>2386.5</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>2451</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>-64.5</v>
+      <c r="B11" s="4" t="n">
+        <v>370</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>SANVIN VOYAGE LLC</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>1741.5</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>2107</v>
+      <c r="B12" s="4" t="n">
+        <v>370</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>370</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>-365.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>SUITE CHARRIOT MOBILITY LLC</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
-        <v>2644.5</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>2580</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>64.5</v>
+      <c r="B13" s="4" t="n">
+        <v>370</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>TOM GUTHRIE</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>623.5</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>0</v>
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>VAMONOS TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>370</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>623.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>VAMONOS TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>344</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>-344</v>
+        <v>-296</v>
       </c>
     </row>
   </sheetData>
@@ -790,13 +1034,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,249 +1055,233 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>PARTNER</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>LATEST</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>PREVIOUS</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>CHANGE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>ANGELES TRANSPORTATION, LLC</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>395.04</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>370</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>25.04</v>
+      <c r="B2" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>APRIL STAR</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>197.52</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>197.52</v>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>ARISESIZ LLC</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>ARISESIZ LLC</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>118.51</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>118.51</v>
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>DEAUNDREY WRIGHT</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>BILLY COLLINS</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>39.5</v>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>EDIS OSMANOVIC</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>DEAUNDREY WRIGHT</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>395.04</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>370</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>25.04</v>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>FLASH LOGISTICS LLC</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>FLASH LOGISTICS LLC</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>395.04</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>370</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>25.04</v>
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>JUST EASY ACCESS RIDE LLC</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>JUST EASY ACCESS RIDE LLC</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>395.04</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>370</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>25.04</v>
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>MTIGER TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>MTIGER TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>395.04</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>370</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>25.04</v>
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>MVO TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>MVO TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>395.04</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>370</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>25.04</v>
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>PAUL KENNEDY</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>SAFE DESTINATION TRANSPORTATION LLC</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>395.04</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>370</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>25.04</v>
+      <c r="B11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>SANVIN VOYAGE LLC</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>395.04</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>370</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>25.04</v>
+      <c r="B12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>SUITE CHARRIOT MOBILITY LLC</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
-        <v>395.04</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>370</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>25.04</v>
+      <c r="B13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>TOM GUTHRIE</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>79.01000000000001</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>79.01000000000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>VAMONOS TRANSPORTATION LLC</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>74</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>-74</v>
+      <c r="B14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1061,13 +1289,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1075,256 +1303,354 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="37" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>PARTNER</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>LATEST</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>PREVIOUS</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>CHANGE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>ANGELES TRANSPORTATION, LLC</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>1050</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>300</v>
+      <c r="A2" s="7" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>96</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>750</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>APRIL STAR</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
+      <c r="A3" s="7" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>111</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>-111</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>ARISESIZ LLC</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0</v>
+      <c r="A4" s="7" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-110</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>BILLY COLLINS</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
+      <c r="A5" s="7" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>119</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-119</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>DEAUNDREY WRIGHT</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>-150</v>
+      <c r="A6" s="7" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>105</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-105</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>FLASH LOGISTICS LLC</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>0</v>
+      <c r="A7" s="7" t="n">
+        <v>45634</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>JUST EASY ACCESS RIDE LLC</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>0</v>
+      <c r="A8" s="7" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>149</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-149</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>MTIGER TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>0</v>
+      <c r="A9" s="7" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>135</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-135</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>MVO TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
+      <c r="A10" s="7" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>137</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-137</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>SAFE DESTINATION TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>0</v>
+      <c r="A11" s="7" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>124</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-124</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>SANVIN VOYAGE LLC</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>0</v>
+      <c r="A12" s="7" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>124</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>400</v>
+        <v>-124</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>SUITE CHARRIOT MOBILITY LLC</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>0</v>
+      <c r="A13" s="7" t="n">
+        <v>45640</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-11</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>TOM GUTHRIE</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>0</v>
+      <c r="A14" s="7" t="n">
+        <v>45641</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-19</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>VAMONOS TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>0</v>
+      <c r="A15" s="7" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>132</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>116</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>133</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>116</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>124</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>122</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>101</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>89</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="n">
+        <v>45654</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
